--- a/src/test/java/com/framework/tc/data/TestData.xlsx
+++ b/src/test/java/com/framework/tc/data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saich\IdeaProjects\FrameworkAssignment\src\test\java\com\framework\tc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736702A2-0C5E-4C52-B358-1941E814E24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185DEDD4-24D0-4A60-96F6-5430C113A7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
